--- a/tokenized_file.xlsx
+++ b/tokenized_file.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/VanshitaS/Desktop/Apziva Projects/Potential Talents/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50C42C0-CCF2-5648-A78B-00AA58268D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -37,283 +31,283 @@
     <t>fit</t>
   </si>
   <si>
-    <t>['2019', 'CT', 'Bauer', 'College', 'Business', 'Graduate', 'Magna', 'Cum', 'Laude', 'aspiring', 'Human', 'Resources', 'professional']</t>
-  </si>
-  <si>
-    <t>['Native', 'English', 'Teacher', 'EPIK', 'English', 'Program', 'Korea']</t>
-  </si>
-  <si>
-    <t>['Aspiring', 'Human', 'Resources', 'Professional']</t>
-  </si>
-  <si>
-    <t>['People', 'Development', 'Coordinator', 'Ryan']</t>
-  </si>
-  <si>
-    <t>['Advisory', 'Board', 'Member', 'Celal', 'Bayar', 'University']</t>
-  </si>
-  <si>
-    <t>['Aspiring', 'Human', 'Resources', 'Specialist']</t>
-  </si>
-  <si>
-    <t>['Student', 'Humber', 'College', 'Aspiring', 'Human', 'Resources', 'Generalist']</t>
-  </si>
-  <si>
-    <t>['HR', 'Senior', 'Specialist']</t>
-  </si>
-  <si>
-    <t>['Seeking', 'Human', 'Resources', 'HRIS', 'Generalist', 'Positions']</t>
-  </si>
-  <si>
-    <t>['Student', 'Chapman', 'University']</t>
-  </si>
-  <si>
-    <t>['SVP', 'CHRO', 'Marketing', 'Communications', 'CSR', 'Officer', 'ENGIE', 'Houston', 'Woodlands', 'Energy', 'GPHR', 'SPHR']</t>
-  </si>
-  <si>
-    <t>['Human', 'Resources', 'Coordinator', 'InterContinental', 'Buckhead', 'Atlanta']</t>
-  </si>
-  <si>
-    <t>['Aspiring', 'Human', 'Resources', 'Management', 'student', 'seeking', 'internship']</t>
-  </si>
-  <si>
-    <t>['Seeking', 'Human', 'Resources', 'Opportunities']</t>
-  </si>
-  <si>
-    <t>['Experienced', 'Retail', 'Manager', 'aspiring', 'Human', 'Resources', 'Professional']</t>
-  </si>
-  <si>
-    <t>['Human', 'Resources', 'Staffing', 'Recruiting', 'Professional']</t>
-  </si>
-  <si>
-    <t>['Human', 'Resources', 'Specialist', 'Luxottica']</t>
-  </si>
-  <si>
-    <t>['Director', 'Human', 'Resources', 'North', 'America', 'Groupe', 'Beneteau']</t>
-  </si>
-  <si>
-    <t>['Retired', 'Army', 'National', 'Guard', 'Recruiter', 'office', 'manager', 'seeking', 'position', 'Human', 'Resources']</t>
-  </si>
-  <si>
-    <t>['Human', 'Resources', 'Generalist', 'ScottMadden', 'Inc']</t>
-  </si>
-  <si>
-    <t>['Business', 'Management', 'Major', 'Aspiring', 'Human', 'Resources', 'Manager']</t>
-  </si>
-  <si>
-    <t>['Aspiring', 'Human', 'Resources', 'Manager', 'seeking', 'internship', 'Human', 'Resources']</t>
-  </si>
-  <si>
-    <t>['Human', 'Resources', 'Professional']</t>
-  </si>
-  <si>
-    <t>['Nortia', 'Staffing', 'seeking', 'Human', 'Resources', 'Payroll', 'Administrative', 'Professionals', '408', '7092621']</t>
-  </si>
-  <si>
-    <t>['Aspiring', 'Human', 'Resources', 'Professional', 'Passionate', 'helping', 'create', 'inclusive', 'engaging', 'work', 'environment']</t>
-  </si>
-  <si>
-    <t>['Human', 'Resources', 'Conflict', 'Management', 'Policies', 'ProceduresTalent', 'ManagementBenefits', 'Compensation']</t>
-  </si>
-  <si>
-    <t>['Human', 'Resources', 'Generalist', 'Schwans']</t>
-  </si>
-  <si>
-    <t>['Liberal', 'Arts', 'Major', 'Aspiring', 'Human', 'Resources', 'Analyst']</t>
-  </si>
-  <si>
-    <t>['Junior', 'MES', 'Engineer', 'Information', 'Systems']</t>
-  </si>
-  <si>
-    <t>['Senior', 'Human', 'Resources', 'Business', 'Partner', 'Heil', 'Environmental']</t>
-  </si>
-  <si>
-    <t>['Aspiring', 'Human', 'Resources', 'Professional', 'energetic', 'TeamFocused', 'Leader']</t>
-  </si>
-  <si>
-    <t>['HR', 'Manager', 'Endemol', 'Shine', 'North', 'America']</t>
-  </si>
-  <si>
-    <t>['Human', 'Resources', 'professional', 'world', 'leader', 'GIS', 'software']</t>
-  </si>
-  <si>
-    <t>['RRP', 'Brand', 'Portfolio', 'Executive', 'JTI', 'Japan', 'Tobacco', 'International']</t>
-  </si>
-  <si>
-    <t>['Information', 'Systems', 'Specialist', 'Programmer', 'love', 'data', 'organization']</t>
-  </si>
-  <si>
-    <t>['Bachelor', 'Science', 'Biology', 'Victoria', 'University', 'Wellington']</t>
-  </si>
-  <si>
-    <t>['Human', 'Resources', 'Management', 'Major']</t>
-  </si>
-  <si>
-    <t>['Director', 'Human', 'Resources', 'EY']</t>
-  </si>
-  <si>
-    <t>['Undergraduate', 'Research', 'Assistant', 'Styczynski', 'Lab']</t>
-  </si>
-  <si>
-    <t>['Lead', 'Official', 'Western', 'Illinois', 'University']</t>
-  </si>
-  <si>
-    <t>['Seeking', 'employment', 'opportunity', 'within', 'Customer', 'Service', 'Patient', 'Care']</t>
-  </si>
-  <si>
-    <t>['Admissions', 'Representative', 'Community', 'medical', 'center', 'long', 'beach']</t>
-  </si>
-  <si>
-    <t>['Seeking', 'Human', 'Resources', 'Opportunities', 'Open', 'travel', 'relocation']</t>
-  </si>
-  <si>
-    <t>['Student', 'Westfield', 'State', 'University']</t>
-  </si>
-  <si>
-    <t>['Student', 'Indiana', 'University', 'Kokomo', 'Business', 'Management', 'Retail', 'Manager', 'Delphi', 'Hardware', 'Paint']</t>
-  </si>
-  <si>
-    <t>['Student']</t>
-  </si>
-  <si>
-    <t>['Seeking', 'Human', 'Resources', 'Position']</t>
-  </si>
-  <si>
-    <t>['Aspiring', 'Human', 'Resources', 'Manager', 'Graduating', 'May', '2020', 'Seeking', 'EntryLevel', 'Human', 'Resources', 'Position', 'St', 'Louis']</t>
-  </si>
-  <si>
-    <t>['Human', 'Resources', 'Generalist', 'Loparex']</t>
-  </si>
-  <si>
-    <t>['Business', 'Intelligence', 'Analytics', 'Travelers']</t>
-  </si>
-  <si>
-    <t>['Always', 'set', 'Success']</t>
-  </si>
-  <si>
-    <t>['Director', 'Administration', 'Excellence', 'Logging']</t>
-  </si>
-  <si>
-    <t>['Houston', 'Texas']</t>
-  </si>
-  <si>
-    <t>['Kanada']</t>
-  </si>
-  <si>
-    <t>['RaleighDurham', 'North', 'Carolina', 'Area']</t>
-  </si>
-  <si>
-    <t>['Denton', 'Texas']</t>
-  </si>
-  <si>
-    <t>['İzmir', 'Türkiye']</t>
-  </si>
-  <si>
-    <t>['Greater', 'New', 'York', 'City', 'Area']</t>
-  </si>
-  <si>
-    <t>['San', 'Francisco', 'Bay', 'Area']</t>
-  </si>
-  <si>
-    <t>['Greater', 'Philadelphia', 'Area']</t>
-  </si>
-  <si>
-    <t>['Lake', 'Forest', 'California']</t>
-  </si>
-  <si>
-    <t>['Houston', 'Texas', 'Area']</t>
-  </si>
-  <si>
-    <t>['Atlanta', 'Georgia']</t>
-  </si>
-  <si>
-    <t>['Chicago', 'Illinois']</t>
-  </si>
-  <si>
-    <t>['Austin', 'Texas', 'Area']</t>
-  </si>
-  <si>
-    <t>['Jackson', 'Mississippi', 'Area']</t>
-  </si>
-  <si>
-    <t>['Greater', 'Grand', 'Rapids', 'Michigan', 'Area']</t>
-  </si>
-  <si>
-    <t>['Virginia', 'Beach', 'Virginia']</t>
-  </si>
-  <si>
-    <t>['Monroe', 'Louisiana', 'Area']</t>
-  </si>
-  <si>
-    <t>['Greater', 'Boston', 'Area']</t>
-  </si>
-  <si>
-    <t>['San', 'Jose', 'California']</t>
-  </si>
-  <si>
-    <t>['New', 'York', 'New', 'York']</t>
-  </si>
-  <si>
-    <t>['DallasFort', 'Worth', 'Area']</t>
-  </si>
-  <si>
-    <t>['Amerika', 'Birleşik', 'Devletleri']</t>
-  </si>
-  <si>
-    <t>['Baton', 'Rouge', 'Louisiana', 'Area']</t>
-  </si>
-  <si>
-    <t>['Myrtle', 'Beach', 'South', 'Carolina', 'Area']</t>
-  </si>
-  <si>
-    <t>['Chattanooga', 'Tennessee', 'Area']</t>
-  </si>
-  <si>
-    <t>['Los', 'Angeles', 'California']</t>
-  </si>
-  <si>
-    <t>['Highland', 'California']</t>
-  </si>
-  <si>
-    <t>['Gaithersburg', 'Maryland']</t>
-  </si>
-  <si>
-    <t>['Baltimore', 'Maryland']</t>
-  </si>
-  <si>
-    <t>['Milpitas', 'California']</t>
-  </si>
-  <si>
-    <t>['Greater', 'Atlanta', 'Area']</t>
-  </si>
-  <si>
-    <t>['Greater', 'Chicago', 'Area']</t>
-  </si>
-  <si>
-    <t>['Torrance', 'California']</t>
-  </si>
-  <si>
-    <t>['Long', 'Beach', 'California']</t>
-  </si>
-  <si>
-    <t>['Bridgewater', 'Massachusetts']</t>
-  </si>
-  <si>
-    <t>['Lafayette', 'Indiana']</t>
-  </si>
-  <si>
-    <t>['Kokomo', 'Indiana', 'Area']</t>
-  </si>
-  <si>
-    <t>['Las', 'Vegas', 'Nevada', 'Area']</t>
-  </si>
-  <si>
-    <t>['Cape', 'Girardeau', 'Missouri']</t>
-  </si>
-  <si>
-    <t>['Greater', 'Los', 'Angeles', 'Area']</t>
-  </si>
-  <si>
-    <t>['Katy', 'Texas']</t>
+    <t>['2019', 'ct', 'bauer', 'colleg', 'busi', 'graduat', 'magna', 'cum', 'laud', 'aspir', 'human', 'resourc', 'profession']</t>
+  </si>
+  <si>
+    <t>['nativ', 'english', 'teacher', 'epik', 'english', 'program', 'korea']</t>
+  </si>
+  <si>
+    <t>['aspir', 'human', 'resourc', 'profession']</t>
+  </si>
+  <si>
+    <t>['peopl', 'develop', 'coordin', 'ryan']</t>
+  </si>
+  <si>
+    <t>['advisori', 'board', 'member', 'celal', 'bayar', 'univers']</t>
+  </si>
+  <si>
+    <t>['aspir', 'human', 'resourc', 'specialist']</t>
+  </si>
+  <si>
+    <t>['student', 'humber', 'colleg', 'aspir', 'human', 'resourc', 'generalist']</t>
+  </si>
+  <si>
+    <t>['hr', 'senior', 'specialist']</t>
+  </si>
+  <si>
+    <t>['seek', 'human', 'resourc', 'hri', 'generalist', 'posit']</t>
+  </si>
+  <si>
+    <t>['student', 'chapman', 'univers']</t>
+  </si>
+  <si>
+    <t>['svp', 'chro', 'market', 'commun', 'csr', 'offic', 'engi', 'houston', 'woodland', 'energi', 'gphr', 'sphr']</t>
+  </si>
+  <si>
+    <t>['human', 'resourc', 'coordin', 'intercontinent', 'buckhead', 'atlanta']</t>
+  </si>
+  <si>
+    <t>['aspir', 'human', 'resourc', 'manag', 'student', 'seek', 'internship']</t>
+  </si>
+  <si>
+    <t>['seek', 'human', 'resourc', 'opportun']</t>
+  </si>
+  <si>
+    <t>['experienc', 'retail', 'manag', 'aspir', 'human', 'resourc', 'profession']</t>
+  </si>
+  <si>
+    <t>['human', 'resourc', 'staf', 'recruit', 'profession']</t>
+  </si>
+  <si>
+    <t>['human', 'resourc', 'specialist', 'luxottica']</t>
+  </si>
+  <si>
+    <t>['director', 'human', 'resourc', 'north', 'america', 'group', 'beneteau']</t>
+  </si>
+  <si>
+    <t>['retir', 'armi', 'nation', 'guard', 'recruit', 'offic', 'manag', 'seek', 'posit', 'human', 'resourc']</t>
+  </si>
+  <si>
+    <t>['human', 'resourc', 'generalist', 'scottmadden', 'inc']</t>
+  </si>
+  <si>
+    <t>['busi', 'manag', 'major', 'aspir', 'human', 'resourc', 'manag']</t>
+  </si>
+  <si>
+    <t>['aspir', 'human', 'resourc', 'manag', 'seek', 'internship', 'human', 'resourc']</t>
+  </si>
+  <si>
+    <t>['human', 'resourc', 'profession']</t>
+  </si>
+  <si>
+    <t>['nortia', 'staf', 'seek', 'human', 'resourc', 'payrol', 'administr', 'profession', '408', '7092621']</t>
+  </si>
+  <si>
+    <t>['aspir', 'human', 'resourc', 'profession', 'passion', 'help', 'creat', 'inclus', 'engag', 'work', 'environ']</t>
+  </si>
+  <si>
+    <t>['human', 'resourc', 'conflict', 'manag', 'polici', 'procedurestal', 'managementbenefit', 'compens']</t>
+  </si>
+  <si>
+    <t>['human', 'resourc', 'generalist', 'schwan']</t>
+  </si>
+  <si>
+    <t>['liber', 'art', 'major', 'aspir', 'human', 'resourc', 'analyst']</t>
+  </si>
+  <si>
+    <t>['junior', 'me', 'engin', 'inform', 'system']</t>
+  </si>
+  <si>
+    <t>['senior', 'human', 'resourc', 'busi', 'partner', 'heil', 'environment']</t>
+  </si>
+  <si>
+    <t>['aspir', 'human', 'resourc', 'profession', 'energet', 'teamfocus', 'leader']</t>
+  </si>
+  <si>
+    <t>['hr', 'manag', 'endemol', 'shine', 'north', 'america']</t>
+  </si>
+  <si>
+    <t>['human', 'resourc', 'profession', 'world', 'leader', 'gi', 'softwar']</t>
+  </si>
+  <si>
+    <t>['rrp', 'brand', 'portfolio', 'execut', 'jti', 'japan', 'tobacco', 'intern']</t>
+  </si>
+  <si>
+    <t>['inform', 'system', 'specialist', 'programm', 'love', 'data', 'organ']</t>
+  </si>
+  <si>
+    <t>['bachelor', 'scienc', 'biolog', 'victoria', 'univers', 'wellington']</t>
+  </si>
+  <si>
+    <t>['human', 'resourc', 'manag', 'major']</t>
+  </si>
+  <si>
+    <t>['director', 'human', 'resourc', 'ey']</t>
+  </si>
+  <si>
+    <t>['undergradu', 'research', 'assist', 'styczynski', 'lab']</t>
+  </si>
+  <si>
+    <t>['lead', 'offici', 'western', 'illinoi', 'univers']</t>
+  </si>
+  <si>
+    <t>['seek', 'employ', 'opportun', 'within', 'custom', 'servic', 'patient', 'care']</t>
+  </si>
+  <si>
+    <t>['admiss', 'repres', 'commun', 'medic', 'center', 'long', 'beach']</t>
+  </si>
+  <si>
+    <t>['seek', 'human', 'resourc', 'opportun', 'open', 'travel', 'reloc']</t>
+  </si>
+  <si>
+    <t>['student', 'westfield', 'state', 'univers']</t>
+  </si>
+  <si>
+    <t>['student', 'indiana', 'univers', 'kokomo', 'busi', 'manag', 'retail', 'manag', 'delphi', 'hardwar', 'paint']</t>
+  </si>
+  <si>
+    <t>['student']</t>
+  </si>
+  <si>
+    <t>['seek', 'human', 'resourc', 'posit']</t>
+  </si>
+  <si>
+    <t>['aspir', 'human', 'resourc', 'manag', 'graduat', 'may', '2020', 'seek', 'entrylevel', 'human', 'resourc', 'posit', 'st', 'loui']</t>
+  </si>
+  <si>
+    <t>['human', 'resourc', 'generalist', 'loparex']</t>
+  </si>
+  <si>
+    <t>['busi', 'intellig', 'analyt', 'travel']</t>
+  </si>
+  <si>
+    <t>['alway', 'set', 'success']</t>
+  </si>
+  <si>
+    <t>['director', 'administr', 'excel', 'log']</t>
+  </si>
+  <si>
+    <t>['houston', 'texa']</t>
+  </si>
+  <si>
+    <t>['kanada']</t>
+  </si>
+  <si>
+    <t>['raleighdurham', 'north', 'carolina', 'area']</t>
+  </si>
+  <si>
+    <t>['denton', 'texa']</t>
+  </si>
+  <si>
+    <t>['i̇zmir', 'türkiy']</t>
+  </si>
+  <si>
+    <t>['greater', 'new', 'york', 'citi', 'area']</t>
+  </si>
+  <si>
+    <t>['san', 'francisco', 'bay', 'area']</t>
+  </si>
+  <si>
+    <t>['greater', 'philadelphia', 'area']</t>
+  </si>
+  <si>
+    <t>['lake', 'forest', 'california']</t>
+  </si>
+  <si>
+    <t>['houston', 'texa', 'area']</t>
+  </si>
+  <si>
+    <t>['atlanta', 'georgia']</t>
+  </si>
+  <si>
+    <t>['chicago', 'illinoi']</t>
+  </si>
+  <si>
+    <t>['austin', 'texa', 'area']</t>
+  </si>
+  <si>
+    <t>['jackson', 'mississippi', 'area']</t>
+  </si>
+  <si>
+    <t>['greater', 'grand', 'rapid', 'michigan', 'area']</t>
+  </si>
+  <si>
+    <t>['virginia', 'beach', 'virginia']</t>
+  </si>
+  <si>
+    <t>['monro', 'louisiana', 'area']</t>
+  </si>
+  <si>
+    <t>['greater', 'boston', 'area']</t>
+  </si>
+  <si>
+    <t>['san', 'jose', 'california']</t>
+  </si>
+  <si>
+    <t>['new', 'york', 'new', 'york']</t>
+  </si>
+  <si>
+    <t>['dallasfort', 'worth', 'area']</t>
+  </si>
+  <si>
+    <t>['amerika', 'birleşik', 'devletleri']</t>
+  </si>
+  <si>
+    <t>['baton', 'roug', 'louisiana', 'area']</t>
+  </si>
+  <si>
+    <t>['myrtl', 'beach', 'south', 'carolina', 'area']</t>
+  </si>
+  <si>
+    <t>['chattanooga', 'tennesse', 'area']</t>
+  </si>
+  <si>
+    <t>['lo', 'angel', 'california']</t>
+  </si>
+  <si>
+    <t>['highland', 'california']</t>
+  </si>
+  <si>
+    <t>['gaithersburg', 'maryland']</t>
+  </si>
+  <si>
+    <t>['baltimor', 'maryland']</t>
+  </si>
+  <si>
+    <t>['milpita', 'california']</t>
+  </si>
+  <si>
+    <t>['greater', 'atlanta', 'area']</t>
+  </si>
+  <si>
+    <t>['greater', 'chicago', 'area']</t>
+  </si>
+  <si>
+    <t>['torranc', 'california']</t>
+  </si>
+  <si>
+    <t>['long', 'beach', 'california']</t>
+  </si>
+  <si>
+    <t>['bridgewat', 'massachusett']</t>
+  </si>
+  <si>
+    <t>['lafayett', 'indiana']</t>
+  </si>
+  <si>
+    <t>['kokomo', 'indiana', 'area']</t>
+  </si>
+  <si>
+    <t>['la', 'vega', 'nevada', 'area']</t>
+  </si>
+  <si>
+    <t>['cape', 'girardeau', 'missouri']</t>
+  </si>
+  <si>
+    <t>['greater', 'lo', 'angel', 'area']</t>
+  </si>
+  <si>
+    <t>['kati', 'texa']</t>
   </si>
   <si>
     <t xml:space="preserve">500+ </t>
@@ -322,8 +316,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,21 +380,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -438,7 +424,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -472,7 +458,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -507,10 +492,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -683,17 +667,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="86" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,7 +691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -724,7 +705,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -738,7 +719,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -752,7 +733,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -766,7 +747,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -780,7 +761,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -794,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -808,7 +789,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -822,7 +803,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -836,7 +817,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -850,7 +831,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -864,7 +845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -878,7 +859,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -892,7 +873,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -906,7 +887,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
@@ -920,7 +901,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -934,7 +915,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -948,7 +929,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -962,7 +943,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -976,7 +957,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -990,7 +971,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1004,7 +985,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1018,7 +999,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1032,7 +1013,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1046,7 +1027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1060,7 +1041,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1074,7 +1055,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1088,7 +1069,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1102,7 +1083,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1116,7 +1097,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1130,7 +1111,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1144,7 +1125,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1158,7 +1139,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1172,7 +1153,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1186,7 +1167,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1200,7 +1181,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1214,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1228,7 +1209,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1242,7 +1223,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1256,7 +1237,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1270,7 +1251,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1284,7 +1265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1298,7 +1279,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1312,7 +1293,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1326,7 +1307,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1340,7 +1321,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1354,7 +1335,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1368,7 +1349,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1382,7 +1363,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1396,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1410,7 +1391,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1424,7 +1405,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1438,7 +1419,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1452,7 +1433,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1466,7 +1447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1480,7 +1461,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1494,7 +1475,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1508,7 +1489,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1522,7 +1503,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1536,7 +1517,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1550,7 +1531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1564,7 +1545,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1578,7 +1559,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1592,7 +1573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1606,7 +1587,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1620,7 +1601,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1634,7 +1615,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1648,7 +1629,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1662,7 +1643,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1676,7 +1657,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1690,7 +1671,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1704,7 +1685,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1718,7 +1699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1732,7 +1713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1746,7 +1727,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1760,7 +1741,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1774,7 +1755,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1788,7 +1769,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1802,7 +1783,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1816,7 +1797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1830,7 +1811,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1844,7 +1825,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1858,7 +1839,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1872,7 +1853,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1886,7 +1867,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1900,7 +1881,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1914,7 +1895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1928,7 +1909,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1942,7 +1923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1956,7 +1937,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1970,7 +1951,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1984,7 +1965,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1998,7 +1979,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2012,7 +1993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2026,7 +2007,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2040,7 +2021,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2054,7 +2035,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2068,7 +2049,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2082,7 +2063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2096,7 +2077,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -2110,7 +2091,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4">
       <c r="A102">
         <v>101</v>
       </c>
@@ -2124,7 +2105,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4">
       <c r="A103">
         <v>102</v>
       </c>
@@ -2138,7 +2119,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4">
       <c r="A104">
         <v>103</v>
       </c>
@@ -2152,7 +2133,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4">
       <c r="A105">
         <v>104</v>
       </c>
